--- a/CEDEN/data_dictionaries/data_dictionary_conversion/tissue/CEDEN_Tissue_Data_Dictionary.xlsx
+++ b/CEDEN/data_dictionaries/data_dictionary_conversion/tissue/CEDEN_Tissue_Data_Dictionary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\David\Open_Data_Project\__CA_DataPortal\CEDEN\data_dictionary_conversion\tissue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawaterboards-my.sharepoint.com/personal/david_altare_waterboards_ca_gov/Documents/projects/CA_data_portal/CEDEN/data_dictionaries/data_dictionary_conversion/tissue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDABECCB-D3D5-4946-9D34-A29ACED6EBAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{BDABECCB-D3D5-4946-9D34-A29ACED6EBAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{120F588C-DE66-4AC7-AC4E-AC65CC96C62C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2421,7 +2421,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3652,22 +3654,22 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>330</v>
       </c>
       <c r="C54" s="4" t="str" cm="1">
         <f t="array" ref="C54">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E54),"-")</f>
-        <v>Sample Date Range (Days)</v>
+        <v>-</v>
       </c>
       <c r="D54" s="5" t="str" cm="1">
         <f t="array" ref="D54">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E54),"-")</f>
-        <v>The number of days in which samples were taken from the environment.</v>
-      </c>
-      <c r="E54" s="2">
+        <v>-</v>
+      </c>
+      <c r="E54" s="2" t="e">
         <f>MATCH(A54,Data_Dictionary_FromPDF!A:A,0)</f>
-        <v>85</v>
+        <v>#N/A</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>6</v>
@@ -6727,9 +6729,9 @@
       <c r="D85" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="E85" s="12">
+      <c r="E85" s="12" t="e">
         <f>MATCH(A85,CEDEN_Tissue_Data_Dictionary!A:A,0)</f>
-        <v>54</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="24" x14ac:dyDescent="0.25">

--- a/CEDEN/data_dictionaries/data_dictionary_conversion/tissue/CEDEN_Tissue_Data_Dictionary.xlsx
+++ b/CEDEN/data_dictionaries/data_dictionary_conversion/tissue/CEDEN_Tissue_Data_Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawaterboards-my.sharepoint.com/personal/david_altare_waterboards_ca_gov/Documents/projects/CA_data_portal/CEDEN/data_dictionaries/data_dictionary_conversion/tissue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{BDABECCB-D3D5-4946-9D34-A29ACED6EBAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{120F588C-DE66-4AC7-AC4E-AC65CC96C62C}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{BDABECCB-D3D5-4946-9D34-A29ACED6EBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4303FAB2-6BA7-49B3-90F0-5021AAECA638}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CEDEN_Tissue_Data_Dictionary" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="5d4d572b-004b-4e2b-b26c-20ef050" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CEDEN_Tissue_Data_Dictionary!$A$1:$F$118</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CEDEN_Tissue_Data_Dictionary!$A$1:$F$125</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="339">
   <si>
     <t>column</t>
   </si>
@@ -1285,6 +1285,30 @@
   </si>
   <si>
     <t>numeric</t>
+  </si>
+  <si>
+    <t>ProgramCode</t>
+  </si>
+  <si>
+    <t>ParentProjectCode</t>
+  </si>
+  <si>
+    <t>CompositeProgramCode</t>
+  </si>
+  <si>
+    <t>CompositeParentProjectCode</t>
+  </si>
+  <si>
+    <t>AnalyteCode</t>
+  </si>
+  <si>
+    <t>FractionName</t>
+  </si>
+  <si>
+    <t>FractionCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specific descriptor of the Analyte. For example, metals are often expressed as total or dissolved and therefore this description should be used within the fraction field.	</t>
   </si>
 </sst>
 </file>
@@ -2122,10 +2146,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2163,7 +2191,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2269,7 +2297,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2411,7 +2439,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2419,23 +2447,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F119"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="46" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="103.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="103.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2455,7 +2483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>95</v>
       </c>
@@ -2478,7 +2506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>96</v>
       </c>
@@ -2501,7 +2529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>97</v>
       </c>
@@ -2524,7 +2552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>98</v>
       </c>
@@ -2547,7 +2575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>99</v>
       </c>
@@ -2570,7 +2598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -2593,7 +2621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="72.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -2616,7 +2644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>54</v>
       </c>
@@ -2639,7 +2667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>56</v>
       </c>
@@ -2662,7 +2690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>100</v>
       </c>
@@ -2685,7 +2713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>101</v>
       </c>
@@ -2708,7 +2736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>102</v>
       </c>
@@ -2731,7 +2759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>103</v>
       </c>
@@ -2754,7 +2782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>104</v>
       </c>
@@ -2777,7 +2805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>105</v>
       </c>
@@ -2800,7 +2828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>106</v>
       </c>
@@ -2823,7 +2851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>107</v>
       </c>
@@ -2846,7 +2874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -2869,7 +2897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>108</v>
       </c>
@@ -2892,7 +2920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>109</v>
       </c>
@@ -2915,7 +2943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>110</v>
       </c>
@@ -2938,7 +2966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>111</v>
       </c>
@@ -2961,7 +2989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>30</v>
       </c>
@@ -2984,7 +3012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="84.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="72.599999999999994" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>31</v>
       </c>
@@ -3007,7 +3035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>32</v>
       </c>
@@ -3030,7 +3058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>112</v>
       </c>
@@ -3054,7 +3082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>33</v>
       </c>
@@ -3077,7 +3105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -3100,7 +3128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>38</v>
       </c>
@@ -3123,7 +3151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>40</v>
       </c>
@@ -3146,7 +3174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>41</v>
       </c>
@@ -3169,7 +3197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>70</v>
       </c>
@@ -3192,7 +3220,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>26</v>
       </c>
@@ -3215,7 +3243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>113</v>
       </c>
@@ -3238,7 +3266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>60</v>
       </c>
@@ -3261,7 +3289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>62</v>
       </c>
@@ -3284,7 +3312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>64</v>
       </c>
@@ -3307,7 +3335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>66</v>
       </c>
@@ -3330,7 +3358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>69</v>
       </c>
@@ -3353,7 +3381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>114</v>
       </c>
@@ -3376,7 +3404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>24</v>
       </c>
@@ -3399,7 +3427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>115</v>
       </c>
@@ -3422,7 +3450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>116</v>
       </c>
@@ -3445,7 +3473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>73</v>
       </c>
@@ -3468,7 +3496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>117</v>
       </c>
@@ -3491,7 +3519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>118</v>
       </c>
@@ -3514,7 +3542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>119</v>
       </c>
@@ -3537,7 +3565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>120</v>
       </c>
@@ -3560,7 +3588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>121</v>
       </c>
@@ -3583,7 +3611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>122</v>
       </c>
@@ -3606,7 +3634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>123</v>
       </c>
@@ -3629,7 +3657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>124</v>
       </c>
@@ -3652,7 +3680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>125</v>
       </c>
@@ -3675,7 +3703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>14</v>
       </c>
@@ -3699,7 +3727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>16</v>
       </c>
@@ -3724,7 +3752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>126</v>
       </c>
@@ -3747,7 +3775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>127</v>
       </c>
@@ -3770,7 +3798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>128</v>
       </c>
@@ -3793,7 +3821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>129</v>
       </c>
@@ -3816,7 +3844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>130</v>
       </c>
@@ -3839,7 +3867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>131</v>
       </c>
@@ -3862,7 +3890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="72.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>132</v>
       </c>
@@ -3885,7 +3913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>133</v>
       </c>
@@ -3908,7 +3936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>134</v>
       </c>
@@ -3931,7 +3959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>135</v>
       </c>
@@ -3954,7 +3982,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>136</v>
       </c>
@@ -3978,7 +4006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>137</v>
       </c>
@@ -4001,7 +4029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>138</v>
       </c>
@@ -4024,7 +4052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>139</v>
       </c>
@@ -4047,7 +4075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>140</v>
       </c>
@@ -4070,7 +4098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>141</v>
       </c>
@@ -4093,7 +4121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>142</v>
       </c>
@@ -4116,7 +4144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>143</v>
       </c>
@@ -4139,7 +4167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>144</v>
       </c>
@@ -4162,7 +4190,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>145</v>
       </c>
@@ -4185,7 +4213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>47</v>
       </c>
@@ -4208,7 +4236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>18</v>
       </c>
@@ -4231,7 +4259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>77</v>
       </c>
@@ -4254,7 +4282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>146</v>
       </c>
@@ -4277,7 +4305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>22</v>
       </c>
@@ -4300,7 +4328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>52</v>
       </c>
@@ -4323,7 +4351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>147</v>
       </c>
@@ -4347,7 +4375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>148</v>
       </c>
@@ -4371,7 +4399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>149</v>
       </c>
@@ -4394,7 +4422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>150</v>
       </c>
@@ -4417,7 +4445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>151</v>
       </c>
@@ -4440,7 +4468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>152</v>
       </c>
@@ -4463,7 +4491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>153</v>
       </c>
@@ -4486,7 +4514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>154</v>
       </c>
@@ -4509,7 +4537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>155</v>
       </c>
@@ -4532,7 +4560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>156</v>
       </c>
@@ -4555,7 +4583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>157</v>
       </c>
@@ -4578,7 +4606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>158</v>
       </c>
@@ -4601,7 +4629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>159</v>
       </c>
@@ -4624,7 +4652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>160</v>
       </c>
@@ -4647,7 +4675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>161</v>
       </c>
@@ -4670,7 +4698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>162</v>
       </c>
@@ -4693,7 +4721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>163</v>
       </c>
@@ -4716,7 +4744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>164</v>
       </c>
@@ -4739,7 +4767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>165</v>
       </c>
@@ -4762,7 +4790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>166</v>
       </c>
@@ -4785,7 +4813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>167</v>
       </c>
@@ -4808,7 +4836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>168</v>
       </c>
@@ -4831,7 +4859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>169</v>
       </c>
@@ -4854,7 +4882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>170</v>
       </c>
@@ -4877,7 +4905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>171</v>
       </c>
@@ -4900,7 +4928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>172</v>
       </c>
@@ -4923,7 +4951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>43</v>
       </c>
@@ -4946,7 +4974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>173</v>
       </c>
@@ -4969,7 +4997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>174</v>
       </c>
@@ -4992,7 +5020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>175</v>
       </c>
@@ -5015,7 +5043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>176</v>
       </c>
@@ -5038,7 +5066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>177</v>
       </c>
@@ -5061,7 +5089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>79</v>
       </c>
@@ -5084,19 +5112,183 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>82</v>
+        <v>331</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C116" s="4" t="str" cm="1">
         <f t="array" ref="C116">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E116),"-")</f>
-        <v>Data Quality</v>
+        <v>-</v>
       </c>
       <c r="D116" s="5" t="str" cm="1">
         <f t="array" ref="D116">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E116),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E116" s="2" t="e">
+        <f>MATCH(A116,Data_Dictionary_FromPDF!A:A,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A117" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" s="4" t="str" cm="1">
+        <f t="array" ref="C117">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E117),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D117" s="5" t="str" cm="1">
+        <f t="array" ref="D117">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E117),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E117" s="2" t="e">
+        <f>MATCH(A117,Data_Dictionary_FromPDF!A:A,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A118" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" s="4" t="str" cm="1">
+        <f t="array" ref="C118">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E118),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D118" s="5" t="str" cm="1">
+        <f t="array" ref="D118">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E118),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E118" s="2" t="e">
+        <f>MATCH(A118,Data_Dictionary_FromPDF!A:A,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A119" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" s="4" t="str" cm="1">
+        <f t="array" ref="C119">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E119),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D119" s="5" t="str" cm="1">
+        <f t="array" ref="D119">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E119),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E119" s="2" t="e">
+        <f>MATCH(A119,Data_Dictionary_FromPDF!A:A,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A120" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120" s="4" t="str" cm="1">
+        <f t="array" ref="C120">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E120),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D120" s="5" t="str" cm="1">
+        <f t="array" ref="D120">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E120),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E120" s="2" t="e">
+        <f>MATCH(A120,Data_Dictionary_FromPDF!A:A,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A121" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" s="4" t="str" cm="1">
+        <f t="array" ref="C121">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E121),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D121" s="5" t="str" cm="1">
+        <f t="array" ref="D121">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E121),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E121" s="2" t="e">
+        <f>MATCH(A121,Data_Dictionary_FromPDF!A:A,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G121" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A122" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" s="4" t="str" cm="1">
+        <f t="array" ref="C122">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E122),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D122" s="5" t="str" cm="1">
+        <f t="array" ref="D122">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E122),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E122" s="2" t="e">
+        <f>MATCH(A122,Data_Dictionary_FromPDF!A:A,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="156.6" x14ac:dyDescent="0.3">
+      <c r="A123" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" s="4" t="str" cm="1">
+        <f t="array" ref="C123">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E123),"-")</f>
+        <v>Data Quality</v>
+      </c>
+      <c r="D123" s="5" t="str" cm="1">
+        <f t="array" ref="D123">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E123),"-")</f>
         <v>Describes the overall quality of the record by taking the QACode, ResultQACode, ComplicanceCode, BatchVerificationCode, and special circumstances into account to assign it to one of the following categories:
 - "Metadata, QC record”- Not a measurement of environmental conditions
 - "Passed QC"- Data passed all QC checks
@@ -5107,74 +5299,74 @@
 - "Reject Data"- Data was rejected by the project or data did not pass all critical QC checks. Data deemed unusable
 The assignments and categories are provisional. A working explanation of the data quality ranking can be found at the following link. This link is open to public comments as well: https://docs.google.com/spreadsheets/d/1q-tGulvO9jyT2dR9GGROdy89z3W6xulYaci5-ezWAe0/edit?usp=sharing</v>
       </c>
-      <c r="E116" s="2">
-        <f>MATCH(A116,Data_Dictionary_FromPDF!A:A,0)</f>
+      <c r="E123" s="2">
+        <f>MATCH(A123,Data_Dictionary_FromPDF!A:A,0)</f>
         <v>26</v>
       </c>
-      <c r="F116" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="84.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
+      <c r="F123" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="72.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A124" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B117" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C117" s="4" t="str" cm="1">
-        <f t="array" ref="C117">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E117),"-")</f>
+      <c r="B124" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" s="4" t="str" cm="1">
+        <f t="array" ref="C124">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E124),"-")</f>
         <v>Data Quality Indicator</v>
       </c>
-      <c r="D117" s="5" t="str" cm="1">
-        <f t="array" ref="D117">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E117),"-")</f>
+      <c r="D124" s="5" t="str" cm="1">
+        <f t="array" ref="D124">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E124),"-")</f>
         <v>Explains the reason for the DataQuality value by indicating which quality assurance check the data did not pass (e.g. BatchVerificationCode, ResultQACode, etc.). If this field contains “Special Rule,” this indicates that the data falls into a special circumstance that
 decreases data quality. This field is left blank for values "Metadata, QC record" and "Passed QC."
 The assignments and categories are provisional. A working explanation of the data quality ranking can be found at the following link. This link is open to public comments as well: https://docs.google.com/spreadsheets/d/1q-tGulvO9jyT2dR9GGROdy89z3W6xulYaci5-ezWAe0/edit?usp=sharing.</v>
       </c>
-      <c r="E117" s="2">
-        <f>MATCH(A117,Data_Dictionary_FromPDF!A:A,0)</f>
+      <c r="E124" s="2">
+        <f>MATCH(A124,Data_Dictionary_FromPDF!A:A,0)</f>
         <v>27</v>
       </c>
-      <c r="F117" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
+      <c r="F124" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A125" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B118" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C118" s="4" t="str" cm="1">
-        <f t="array" ref="C118">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E118),"-")</f>
+      <c r="B125" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" s="4" t="str" cm="1">
+        <f t="array" ref="C125">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E125),"-")</f>
         <v>Datum</v>
       </c>
-      <c r="D118" s="5" t="str" cm="1">
-        <f t="array" ref="D118">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E118),"-")</f>
+      <c r="D125" s="5" t="str" cm="1">
+        <f t="array" ref="D125">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E125),"-")</f>
         <v>Represents the associated model of the Earth from which reference points are used to calculate position measurements. GPS devices commonly use datums such as "NAD83" and "WGS84." Default value equals “NR” if unknown. A list of possible options is available at the following site (Note: search the first column in the table for "DatumList"): http://ceden.org/CEDEN_Checker/Checker/DisplayCEDENLookUp.php?List=VariableCodesLookUp</v>
       </c>
-      <c r="E118" s="2">
-        <f>MATCH(A118,Data_Dictionary_FromPDF!A:A,0)</f>
+      <c r="E125" s="2">
+        <f>MATCH(A125,Data_Dictionary_FromPDF!A:A,0)</f>
         <v>28</v>
       </c>
-      <c r="F118" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
+      <c r="F125" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F118" xr:uid="{3405FC6E-A9F1-4DF5-92D4-B571F51B889D}"/>
+  <autoFilter ref="A1:F125" xr:uid="{3405FC6E-A9F1-4DF5-92D4-B571F51B889D}"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B118" xr:uid="{07FF8B47-CB39-48EC-881C-CABEB045E261}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B125" xr:uid="{07FF8B47-CB39-48EC-881C-CABEB045E261}">
       <formula1>"text, numeric, timestamp"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5189,17 +5381,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" style="10" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" style="10" customWidth="1"/>
     <col min="3" max="3" width="12" style="10" customWidth="1"/>
-    <col min="4" max="4" width="99.42578125" style="50" customWidth="1"/>
+    <col min="4" max="4" width="99.44140625" style="50" customWidth="1"/>
     <col min="5" max="5" width="12" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="10"/>
+    <col min="6" max="16384" width="9.109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>87</v>
       </c>
@@ -5216,7 +5408,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>159</v>
       </c>
@@ -5235,7 +5427,7 @@
       </c>
       <c r="F2" s="52"/>
     </row>
-    <row r="3" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>69</v>
       </c>
@@ -5253,7 +5445,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>30</v>
       </c>
@@ -5272,7 +5464,7 @@
       </c>
       <c r="F4" s="52"/>
     </row>
-    <row r="5" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>116</v>
       </c>
@@ -5291,7 +5483,7 @@
       </c>
       <c r="F5" s="52"/>
     </row>
-    <row r="6" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>161</v>
       </c>
@@ -5309,7 +5501,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="48" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>40</v>
       </c>
@@ -5328,7 +5520,7 @@
       </c>
       <c r="F7" s="52"/>
     </row>
-    <row r="8" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>147</v>
       </c>
@@ -5347,7 +5539,7 @@
       </c>
       <c r="F8" s="52"/>
     </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>52</v>
       </c>
@@ -5366,7 +5558,7 @@
       </c>
       <c r="F9" s="52"/>
     </row>
-    <row r="10" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>22</v>
       </c>
@@ -5384,7 +5576,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="48" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
@@ -5402,7 +5594,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>103</v>
       </c>
@@ -5420,7 +5612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>139</v>
       </c>
@@ -5438,7 +5630,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>167</v>
       </c>
@@ -5456,7 +5648,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>41</v>
       </c>
@@ -5474,7 +5666,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>114</v>
       </c>
@@ -5492,7 +5684,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>99</v>
       </c>
@@ -5510,7 +5702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
         <v>130</v>
       </c>
@@ -5528,7 +5720,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>175</v>
       </c>
@@ -5546,7 +5738,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>108</v>
       </c>
@@ -5564,7 +5756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>171</v>
       </c>
@@ -5582,7 +5774,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
         <v>102</v>
       </c>
@@ -5600,7 +5792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A23" s="31" t="s">
         <v>138</v>
       </c>
@@ -5618,7 +5810,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>168</v>
       </c>
@@ -5636,7 +5828,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>122</v>
       </c>
@@ -5654,7 +5846,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="168" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="156" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>82</v>
       </c>
@@ -5669,10 +5861,10 @@
       </c>
       <c r="E26" s="12">
         <f>MATCH(A26,CEDEN_Tissue_Data_Dictionary!A:A,0)</f>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="84" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="60" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>84</v>
       </c>
@@ -5687,10 +5879,10 @@
       </c>
       <c r="E27" s="12">
         <f>MATCH(A27,CEDEN_Tissue_Data_Dictionary!A:A,0)</f>
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="48" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>86</v>
       </c>
@@ -5705,10 +5897,10 @@
       </c>
       <c r="E28" s="12">
         <f>MATCH(A28,CEDEN_Tissue_Data_Dictionary!A:A,0)</f>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>66</v>
       </c>
@@ -5726,7 +5918,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>64</v>
       </c>
@@ -5744,7 +5936,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>70</v>
       </c>
@@ -5762,7 +5954,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>177</v>
       </c>
@@ -5780,7 +5972,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>101</v>
       </c>
@@ -5798,7 +5990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A34" s="36" t="s">
         <v>104</v>
       </c>
@@ -5816,7 +6008,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A35" s="36" t="s">
         <v>140</v>
       </c>
@@ -5834,7 +6026,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>151</v>
       </c>
@@ -5852,7 +6044,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="60" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="s">
         <v>100</v>
       </c>
@@ -5870,7 +6062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.3">
       <c r="A38" s="37" t="s">
         <v>135</v>
       </c>
@@ -5888,7 +6080,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
         <v>145</v>
       </c>
@@ -5906,7 +6098,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
         <v>170</v>
       </c>
@@ -5924,7 +6116,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="48" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
         <v>146</v>
       </c>
@@ -5942,7 +6134,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
         <v>77</v>
       </c>
@@ -5960,7 +6152,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="48" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
         <v>24</v>
       </c>
@@ -5978,7 +6170,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
         <v>115</v>
       </c>
@@ -5996,7 +6188,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>26</v>
       </c>
@@ -6014,7 +6206,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="60" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
         <v>117</v>
       </c>
@@ -6032,7 +6224,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
         <v>124</v>
       </c>
@@ -6050,7 +6242,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="38" t="s">
         <v>54</v>
       </c>
@@ -6068,7 +6260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="38" t="s">
         <v>324</v>
       </c>
@@ -6086,7 +6278,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
         <v>153</v>
       </c>
@@ -6104,7 +6296,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="48" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
         <v>18</v>
       </c>
@@ -6122,7 +6314,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
         <v>174</v>
       </c>
@@ -6140,7 +6332,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="40" t="s">
         <v>56</v>
       </c>
@@ -6158,7 +6350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="40" t="s">
         <v>325</v>
       </c>
@@ -6176,7 +6368,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
         <v>110</v>
       </c>
@@ -6194,7 +6386,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A56" s="16" t="s">
         <v>33</v>
       </c>
@@ -6212,7 +6404,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
         <v>111</v>
       </c>
@@ -6230,7 +6422,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="41" t="s">
         <v>107</v>
       </c>
@@ -6248,7 +6440,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
         <v>118</v>
       </c>
@@ -6266,7 +6458,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="48" x14ac:dyDescent="0.3">
       <c r="A60" s="16" t="s">
         <v>148</v>
       </c>
@@ -6284,7 +6476,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
         <v>154</v>
       </c>
@@ -6302,7 +6494,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A62" s="41" t="s">
         <v>96</v>
       </c>
@@ -6320,7 +6512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A63" s="41" t="s">
         <v>326</v>
       </c>
@@ -6338,7 +6530,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
         <v>166</v>
       </c>
@@ -6356,7 +6548,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A65" s="16" t="s">
         <v>172</v>
       </c>
@@ -6374,7 +6566,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A66" s="13" t="s">
         <v>62</v>
       </c>
@@ -6392,7 +6584,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A67" s="16" t="s">
         <v>60</v>
       </c>
@@ -6410,7 +6602,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A68" s="42" t="s">
         <v>162</v>
       </c>
@@ -6428,7 +6620,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A69" s="38" t="s">
         <v>95</v>
       </c>
@@ -6446,7 +6638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A70" s="38" t="s">
         <v>137</v>
       </c>
@@ -6464,7 +6656,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A71" s="30" t="s">
         <v>97</v>
       </c>
@@ -6482,7 +6674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A72" s="30" t="s">
         <v>128</v>
       </c>
@@ -6500,7 +6692,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A73" s="43" t="s">
         <v>98</v>
       </c>
@@ -6518,7 +6710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A74" s="43" t="s">
         <v>129</v>
       </c>
@@ -6536,7 +6728,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A75" s="13" t="s">
         <v>47</v>
       </c>
@@ -6554,7 +6746,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A76" s="16" t="s">
         <v>38</v>
       </c>
@@ -6572,7 +6764,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="48" x14ac:dyDescent="0.3">
       <c r="A77" s="13" t="s">
         <v>112</v>
       </c>
@@ -6590,7 +6782,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A78" s="16" t="s">
         <v>32</v>
       </c>
@@ -6608,7 +6800,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
         <v>113</v>
       </c>
@@ -6626,7 +6818,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A80" s="16" t="s">
         <v>109</v>
       </c>
@@ -6644,7 +6836,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A81" s="13" t="s">
         <v>35</v>
       </c>
@@ -6662,7 +6854,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A82" s="16" t="s">
         <v>43</v>
       </c>
@@ -6680,7 +6872,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A83" s="30" t="s">
         <v>14</v>
       </c>
@@ -6698,7 +6890,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A84" s="30" t="s">
         <v>136</v>
       </c>
@@ -6716,7 +6908,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="16" t="s">
         <v>178</v>
       </c>
@@ -6734,7 +6926,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
         <v>79</v>
       </c>
@@ -6752,7 +6944,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A87" s="44" t="s">
         <v>20</v>
       </c>
@@ -6770,7 +6962,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A88" s="44" t="s">
         <v>143</v>
       </c>
@@ -6788,7 +6980,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A89" s="13" t="s">
         <v>144</v>
       </c>
@@ -6806,7 +6998,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A90" s="16" t="s">
         <v>160</v>
       </c>
@@ -6824,7 +7016,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A91" s="13" t="s">
         <v>123</v>
       </c>
@@ -6842,7 +7034,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A92" s="16" t="s">
         <v>158</v>
       </c>
@@ -6860,7 +7052,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="60" x14ac:dyDescent="0.3">
       <c r="A93" s="30" t="s">
         <v>12</v>
       </c>
@@ -6878,7 +7070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="60" x14ac:dyDescent="0.3">
       <c r="A94" s="30" t="s">
         <v>132</v>
       </c>
@@ -6896,7 +7088,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A95" s="43" t="s">
         <v>10</v>
       </c>
@@ -6914,7 +7106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A96" s="43" t="s">
         <v>131</v>
       </c>
@@ -6932,7 +7124,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A97" s="13" t="s">
         <v>73</v>
       </c>
@@ -6950,7 +7142,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="16" t="s">
         <v>150</v>
       </c>
@@ -6968,7 +7160,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="48" t="s">
         <v>173</v>
       </c>
@@ -6986,7 +7178,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A100" s="16" t="s">
         <v>163</v>
       </c>
@@ -7004,7 +7196,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A101" s="30" t="s">
         <v>106</v>
       </c>
@@ -7022,7 +7214,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A102" s="30" t="s">
         <v>142</v>
       </c>
@@ -7040,7 +7232,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A103" s="49" t="s">
         <v>105</v>
       </c>
@@ -7058,7 +7250,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A104" s="49" t="s">
         <v>141</v>
       </c>
@@ -7076,7 +7268,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="48" t="s">
         <v>126</v>
       </c>
@@ -7094,7 +7286,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="16" t="s">
         <v>164</v>
       </c>
@@ -7112,7 +7304,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="13" t="s">
         <v>121</v>
       </c>
@@ -7130,7 +7322,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="16" t="s">
         <v>120</v>
       </c>
@@ -7148,7 +7340,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="13" t="s">
         <v>176</v>
       </c>
@@ -7166,7 +7358,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A110" s="16" t="s">
         <v>149</v>
       </c>
@@ -7184,7 +7376,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="13" t="s">
         <v>152</v>
       </c>
@@ -7202,7 +7394,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="84" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A112" s="16" t="s">
         <v>31</v>
       </c>
@@ -7220,7 +7412,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A113" s="13" t="s">
         <v>169</v>
       </c>
@@ -7238,7 +7430,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A114" s="16" t="s">
         <v>155</v>
       </c>
@@ -7256,7 +7448,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A115" s="48" t="s">
         <v>165</v>
       </c>
@@ -7274,7 +7466,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A116" s="41" t="s">
         <v>156</v>
       </c>
@@ -7292,7 +7484,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="13" t="s">
         <v>119</v>
       </c>
@@ -7310,7 +7502,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="16" t="s">
         <v>157</v>
       </c>
@@ -7399,15 +7591,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7421,7 +7613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -7429,7 +7621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>96</v>
       </c>
@@ -7437,7 +7629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -7445,7 +7637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -7453,7 +7645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>99</v>
       </c>
@@ -7461,7 +7653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -7469,7 +7661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -7477,7 +7669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -7485,7 +7677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -7493,7 +7685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>100</v>
       </c>
@@ -7501,7 +7693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>101</v>
       </c>
@@ -7509,7 +7701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>102</v>
       </c>
@@ -7517,7 +7709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>103</v>
       </c>
@@ -7525,7 +7717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>104</v>
       </c>
@@ -7533,7 +7725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>105</v>
       </c>
@@ -7541,7 +7733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>106</v>
       </c>
@@ -7549,7 +7741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>107</v>
       </c>
@@ -7557,7 +7749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -7565,7 +7757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>108</v>
       </c>
@@ -7573,7 +7765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>109</v>
       </c>
@@ -7581,7 +7773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>110</v>
       </c>
@@ -7589,7 +7781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>111</v>
       </c>
@@ -7597,7 +7789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -7605,7 +7797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -7613,7 +7805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -7621,7 +7813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>112</v>
       </c>
@@ -7629,7 +7821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -7637,7 +7829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -7645,7 +7837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -7653,7 +7845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -7661,7 +7853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -7669,7 +7861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -7677,7 +7869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -7685,7 +7877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>113</v>
       </c>
@@ -7693,7 +7885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -7701,7 +7893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -7709,7 +7901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>64</v>
       </c>
@@ -7717,7 +7909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>66</v>
       </c>
@@ -7725,7 +7917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>69</v>
       </c>
@@ -7733,7 +7925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>114</v>
       </c>
@@ -7741,7 +7933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>24</v>
       </c>
@@ -7749,7 +7941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>115</v>
       </c>
@@ -7757,7 +7949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>116</v>
       </c>
@@ -7765,7 +7957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>73</v>
       </c>
@@ -7773,7 +7965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>117</v>
       </c>
@@ -7781,7 +7973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>118</v>
       </c>
@@ -7789,7 +7981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>119</v>
       </c>
@@ -7797,7 +7989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>120</v>
       </c>
@@ -7805,7 +7997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>121</v>
       </c>
@@ -7813,7 +8005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>122</v>
       </c>
@@ -7821,7 +8013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>123</v>
       </c>
@@ -7829,7 +8021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>124</v>
       </c>
@@ -7837,7 +8029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>125</v>
       </c>
@@ -7845,7 +8037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -7853,7 +8045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -7861,7 +8053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>126</v>
       </c>
@@ -7869,7 +8061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>127</v>
       </c>
@@ -7877,7 +8069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>128</v>
       </c>
@@ -7885,7 +8077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>129</v>
       </c>
@@ -7893,7 +8085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>130</v>
       </c>
@@ -7901,7 +8093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>131</v>
       </c>
@@ -7909,7 +8101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>132</v>
       </c>
@@ -7917,7 +8109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>133</v>
       </c>
@@ -7925,7 +8117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>134</v>
       </c>
@@ -7933,7 +8125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>135</v>
       </c>
@@ -7941,7 +8133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>136</v>
       </c>
@@ -7949,7 +8141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>137</v>
       </c>
@@ -7957,7 +8149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>138</v>
       </c>
@@ -7965,7 +8157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -7973,7 +8165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>140</v>
       </c>
@@ -7981,7 +8173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>141</v>
       </c>
@@ -7989,7 +8181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>142</v>
       </c>
@@ -7997,7 +8189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>143</v>
       </c>
@@ -8005,7 +8197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>144</v>
       </c>
@@ -8013,7 +8205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>145</v>
       </c>
@@ -8021,7 +8213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>47</v>
       </c>
@@ -8029,7 +8221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>18</v>
       </c>
@@ -8037,7 +8229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -8045,7 +8237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>146</v>
       </c>
@@ -8053,7 +8245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>22</v>
       </c>
@@ -8061,7 +8253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>52</v>
       </c>
@@ -8069,7 +8261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>147</v>
       </c>
@@ -8077,7 +8269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>148</v>
       </c>
@@ -8085,7 +8277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>149</v>
       </c>
@@ -8093,7 +8285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>150</v>
       </c>
@@ -8101,7 +8293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>151</v>
       </c>
@@ -8109,7 +8301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>152</v>
       </c>
@@ -8117,7 +8309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>153</v>
       </c>
@@ -8125,7 +8317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>154</v>
       </c>
@@ -8133,7 +8325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>155</v>
       </c>
@@ -8141,7 +8333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>156</v>
       </c>
@@ -8149,7 +8341,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>157</v>
       </c>
@@ -8157,7 +8349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>158</v>
       </c>
@@ -8165,7 +8357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>159</v>
       </c>
@@ -8173,7 +8365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>160</v>
       </c>
@@ -8181,7 +8373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>161</v>
       </c>
@@ -8189,7 +8381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>162</v>
       </c>
@@ -8197,7 +8389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>163</v>
       </c>
@@ -8205,7 +8397,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>164</v>
       </c>
@@ -8213,7 +8405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>165</v>
       </c>
@@ -8221,7 +8413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>166</v>
       </c>
@@ -8229,7 +8421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>167</v>
       </c>
@@ -8237,7 +8429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>168</v>
       </c>
@@ -8245,7 +8437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>169</v>
       </c>
@@ -8253,7 +8445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>170</v>
       </c>
@@ -8261,7 +8453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>171</v>
       </c>
@@ -8269,7 +8461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>172</v>
       </c>
@@ -8277,7 +8469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>43</v>
       </c>
@@ -8285,7 +8477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>173</v>
       </c>
@@ -8293,7 +8485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>174</v>
       </c>
@@ -8301,7 +8493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>175</v>
       </c>
@@ -8309,7 +8501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>176</v>
       </c>
@@ -8317,7 +8509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>177</v>
       </c>
@@ -8325,7 +8517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>79</v>
       </c>
@@ -8333,7 +8525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>82</v>
       </c>
@@ -8341,7 +8533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>84</v>
       </c>
@@ -8349,7 +8541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>86</v>
       </c>
@@ -8357,7 +8549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>178</v>
       </c>

--- a/CEDEN/data_dictionaries/data_dictionary_conversion/tissue/CEDEN_Tissue_Data_Dictionary.xlsx
+++ b/CEDEN/data_dictionaries/data_dictionary_conversion/tissue/CEDEN_Tissue_Data_Dictionary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawaterboards-my.sharepoint.com/personal/david_altare_waterboards_ca_gov/Documents/projects/CA_data_portal/CEDEN/data_dictionaries/data_dictionary_conversion/tissue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{BDABECCB-D3D5-4946-9D34-A29ACED6EBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4303FAB2-6BA7-49B3-90F0-5021AAECA638}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="13_ncr:1_{BDABECCB-D3D5-4946-9D34-A29ACED6EBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9294FAC9-6995-4D18-931D-B4C2B609AAF9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="369">
   <si>
     <t>column</t>
   </si>
@@ -1308,7 +1308,97 @@
     <t>FractionCode</t>
   </si>
   <si>
-    <t xml:space="preserve">Specific descriptor of the Analyte. For example, metals are often expressed as total or dissolved and therefore this description should be used within the fraction field.	</t>
+    <t>Composite Parent Project Name</t>
+  </si>
+  <si>
+    <t>Composite Latitude</t>
+  </si>
+  <si>
+    <t>Composite Longitude</t>
+  </si>
+  <si>
+    <t>Program Code</t>
+  </si>
+  <si>
+    <t>Parent Project Code</t>
+  </si>
+  <si>
+    <t>Composite Program Code</t>
+  </si>
+  <si>
+    <t>Composite Parent Project Code</t>
+  </si>
+  <si>
+    <t>Analyte Code</t>
+  </si>
+  <si>
+    <t>Fraction Name</t>
+  </si>
+  <si>
+    <t>Fraction Code</t>
+  </si>
+  <si>
+    <t>Specific descriptor of the Analyte. For example, metals are often expressed as total or dissolved and therefore this description should be used within the fraction field. A list of possible options can be found at this link: https://ceden.org/CEDEN_Checker/Checker/DisplayCEDENLookUp.php?List=FractionLookUp</t>
+  </si>
+  <si>
+    <t>Code corresponding to the 'ParentProjectName' field. A list of possible options can be found at this link: http://ceden.org/CEDEN_Checker/Checker/DisplayCEDENLookUp.php?List=ParentProjectLookUp</t>
+  </si>
+  <si>
+    <t>Code corresponding to 'ProgramName' field. A list of possible options is available at this link: http://ceden.org/CEDEN_Checker/Checker/DisplayCEDENLookUp.php?List=ProgramLookUp</t>
+  </si>
+  <si>
+    <t>Code corresponding to the 'FractionName' field. A list of possible options can be found at this link: https://ceden.org/CEDEN_Checker/Checker/DisplayCEDENLookUp.php?List=FractionLookUp</t>
+  </si>
+  <si>
+    <t>Code corresponding to the 'Analyte' field. A list of possible options is available at this link: http://ceden.org/CEDEN_Checker/Checker/DisplayCEDENLookUp.php?List=AnalyteLookUp</t>
+  </si>
+  <si>
+    <t>Composite Geometry Shape</t>
+  </si>
+  <si>
+    <t>Composite Sample Date</t>
+  </si>
+  <si>
+    <t>Composite Program Name</t>
+  </si>
+  <si>
+    <t>Composite Composite Type</t>
+  </si>
+  <si>
+    <t>Composite Common Name</t>
+  </si>
+  <si>
+    <t>Composite Final ID</t>
+  </si>
+  <si>
+    <t>Composite Tissue Prep</t>
+  </si>
+  <si>
+    <t>Composite Tissue Name</t>
+  </si>
+  <si>
+    <t>Composite Sample Type Code</t>
+  </si>
+  <si>
+    <t>Composite Project Code</t>
+  </si>
+  <si>
+    <t>Composite Project Name</t>
+  </si>
+  <si>
+    <t>Composite Composite ID</t>
+  </si>
+  <si>
+    <t>Composite Station Name</t>
+  </si>
+  <si>
+    <t>Composite Station Code</t>
+  </si>
+  <si>
+    <t>Code corresponding to 'CompositeProgramName' field. A list of possible options is available at this link: http://ceden.org/CEDEN_Checker/Checker/DisplayCEDENLookUp.php?List=ProgramLookUp</t>
+  </si>
+  <si>
+    <t>Code corresponding to 'CompositeParentProjectName' field. A list of possible options is available at this link: http://ceden.org/CEDEN_Checker/Checker/DisplayCEDENLookUp.php?List=ParentProjectLookUp</t>
   </si>
 </sst>
 </file>
@@ -2447,10 +2537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
+    <sheetView tabSelected="1" topLeftCell="B111" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2461,9 +2551,10 @@
     <col min="4" max="4" width="103.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.77734375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2482,8 +2573,9 @@
       <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>95</v>
       </c>
@@ -2505,8 +2597,9 @@
       <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>96</v>
       </c>
@@ -2528,8 +2621,9 @@
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>97</v>
       </c>
@@ -2551,8 +2645,9 @@
       <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>98</v>
       </c>
@@ -2574,8 +2669,9 @@
       <c r="F5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>99</v>
       </c>
@@ -2597,8 +2693,9 @@
       <c r="F6" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -2620,8 +2717,9 @@
       <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="60.6" x14ac:dyDescent="0.3">
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -2643,8 +2741,9 @@
       <c r="F8" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>54</v>
       </c>
@@ -2666,8 +2765,9 @@
       <c r="F9" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>56</v>
       </c>
@@ -2689,8 +2789,9 @@
       <c r="F10" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="60.6" x14ac:dyDescent="0.3">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>100</v>
       </c>
@@ -2712,8 +2813,9 @@
       <c r="F11" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>101</v>
       </c>
@@ -2735,8 +2837,9 @@
       <c r="F12" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>102</v>
       </c>
@@ -2758,8 +2861,9 @@
       <c r="F13" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>103</v>
       </c>
@@ -2781,8 +2885,9 @@
       <c r="F14" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>104</v>
       </c>
@@ -2804,8 +2909,9 @@
       <c r="F15" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>105</v>
       </c>
@@ -2827,8 +2933,9 @@
       <c r="F16" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>106</v>
       </c>
@@ -2850,8 +2957,9 @@
       <c r="F17" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>107</v>
       </c>
@@ -2873,8 +2981,9 @@
       <c r="F18" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -2896,8 +3005,9 @@
       <c r="F19" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>108</v>
       </c>
@@ -2919,8 +3029,9 @@
       <c r="F20" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>109</v>
       </c>
@@ -2942,8 +3053,9 @@
       <c r="F21" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>110</v>
       </c>
@@ -2965,8 +3077,9 @@
       <c r="F22" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>111</v>
       </c>
@@ -2988,8 +3101,9 @@
       <c r="F23" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>30</v>
       </c>
@@ -3011,8 +3125,9 @@
       <c r="F24" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="72.599999999999994" x14ac:dyDescent="0.3">
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="72.599999999999994" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>31</v>
       </c>
@@ -3034,8 +3149,9 @@
       <c r="F25" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>32</v>
       </c>
@@ -3057,8 +3173,9 @@
       <c r="F26" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>112</v>
       </c>
@@ -3081,8 +3198,9 @@
       <c r="F27" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>33</v>
       </c>
@@ -3104,8 +3222,9 @@
       <c r="F28" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -3127,8 +3246,9 @@
       <c r="F29" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>38</v>
       </c>
@@ -3150,8 +3270,9 @@
       <c r="F30" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>40</v>
       </c>
@@ -3173,8 +3294,9 @@
       <c r="F31" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>41</v>
       </c>
@@ -3196,8 +3318,9 @@
       <c r="F32" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>70</v>
       </c>
@@ -3219,8 +3342,9 @@
       <c r="F33" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>26</v>
       </c>
@@ -3242,8 +3366,9 @@
       <c r="F34" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>113</v>
       </c>
@@ -3265,8 +3390,9 @@
       <c r="F35" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>60</v>
       </c>
@@ -3288,8 +3414,9 @@
       <c r="F36" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>62</v>
       </c>
@@ -3311,8 +3438,9 @@
       <c r="F37" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>64</v>
       </c>
@@ -3334,8 +3462,9 @@
       <c r="F38" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>66</v>
       </c>
@@ -3357,8 +3486,9 @@
       <c r="F39" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>69</v>
       </c>
@@ -3380,8 +3510,9 @@
       <c r="F40" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>114</v>
       </c>
@@ -3403,8 +3534,9 @@
       <c r="F41" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>24</v>
       </c>
@@ -3426,8 +3558,9 @@
       <c r="F42" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>115</v>
       </c>
@@ -3449,8 +3582,9 @@
       <c r="F43" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>116</v>
       </c>
@@ -3472,8 +3606,9 @@
       <c r="F44" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>73</v>
       </c>
@@ -3495,8 +3630,9 @@
       <c r="F45" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>117</v>
       </c>
@@ -3518,8 +3654,9 @@
       <c r="F46" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>118</v>
       </c>
@@ -3541,8 +3678,9 @@
       <c r="F47" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>119</v>
       </c>
@@ -3564,8 +3702,9 @@
       <c r="F48" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>120</v>
       </c>
@@ -3587,8 +3726,9 @@
       <c r="F49" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>121</v>
       </c>
@@ -3610,8 +3750,9 @@
       <c r="F50" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>122</v>
       </c>
@@ -3633,8 +3774,9 @@
       <c r="F51" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:8" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>123</v>
       </c>
@@ -3656,8 +3798,9 @@
       <c r="F52" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>124</v>
       </c>
@@ -3679,8 +3822,9 @@
       <c r="F53" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>125</v>
       </c>
@@ -3688,12 +3832,12 @@
         <v>330</v>
       </c>
       <c r="C54" s="4" t="str" cm="1">
-        <f t="array" ref="C54">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E54),"-")</f>
-        <v>-</v>
+        <f t="array" ref="C54">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E54),G54)</f>
+        <v>Sample Date Range (Days)</v>
       </c>
       <c r="D54" s="5" t="str" cm="1">
-        <f t="array" ref="D54">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E54),"-")</f>
-        <v>-</v>
+        <f t="array" ref="D54">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E54),H54)</f>
+        <v>The number of days in which samples were taken from the environment.</v>
       </c>
       <c r="E54" s="2" t="e">
         <f>MATCH(A54,Data_Dictionary_FromPDF!A:A,0)</f>
@@ -3702,8 +3846,14 @@
       <c r="F54" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="G54" t="s">
+        <v>239</v>
+      </c>
+      <c r="H54" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>14</v>
       </c>
@@ -3726,8 +3876,9 @@
       <c r="F55" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>16</v>
       </c>
@@ -3751,8 +3902,9 @@
       <c r="F56" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>126</v>
       </c>
@@ -3774,8 +3926,9 @@
       <c r="F57" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>127</v>
       </c>
@@ -3783,12 +3936,12 @@
         <v>6</v>
       </c>
       <c r="C58" s="4" t="str" cm="1">
-        <f t="array" ref="C58">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E58),"-")</f>
-        <v>-</v>
+        <f t="array" ref="C58">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E58),G58)</f>
+        <v>Composite Parent Project Name</v>
       </c>
       <c r="D58" s="5" t="str" cm="1">
-        <f t="array" ref="D58">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E58),"-")</f>
-        <v>-</v>
+        <f t="array" ref="D58">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E58),H58)</f>
+        <v>A larger or on-going project in which the specific project that the samples were collected for is associated with. A list of possible options can be found at this link: http://ceden.org/CEDEN_Checker/Checker/DisplayCEDENLookUp.php?List=ParentProjectLookUp</v>
       </c>
       <c r="E58" s="2" t="e">
         <f>MATCH(A58,Data_Dictionary_FromPDF!A:A,0)</f>
@@ -3797,17 +3950,23 @@
       <c r="F58" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="G58" t="s">
+        <v>338</v>
+      </c>
+      <c r="H58" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>128</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="4" t="str" cm="1">
-        <f t="array" ref="C59">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E59),"-")</f>
-        <v>Project Code</v>
+      <c r="C59" s="4" t="str">
+        <f>G59</f>
+        <v>Composite Project Code</v>
       </c>
       <c r="D59" s="5" t="str" cm="1">
         <f t="array" ref="D59">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E59),"-")</f>
@@ -3820,17 +3979,20 @@
       <c r="F59" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G59" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="4" t="str" cm="1">
-        <f t="array" ref="C60">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E60),"-")</f>
-        <v>Project Name</v>
+      <c r="C60" s="4" t="str">
+        <f t="shared" ref="C60:C63" si="0">G60</f>
+        <v>Composite Project Name</v>
       </c>
       <c r="D60" s="5" t="str" cm="1">
         <f t="array" ref="D60">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E60),"-")</f>
@@ -3843,17 +4005,20 @@
       <c r="F60" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G60" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>130</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="4" t="str" cm="1">
-        <f t="array" ref="C61">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E61),"-")</f>
-        <v>Composite ID</v>
+      <c r="C61" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Composite Composite ID</v>
       </c>
       <c r="D61" s="5" t="str" cm="1">
         <f t="array" ref="D61">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E61),"-")</f>
@@ -3866,17 +4031,20 @@
       <c r="F61" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G61" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="4" t="str" cm="1">
-        <f t="array" ref="C62">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E62),"-")</f>
-        <v>Station Name</v>
+      <c r="C62" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Composite Station Name</v>
       </c>
       <c r="D62" s="5" t="str" cm="1">
         <f t="array" ref="D62">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E62),"-")</f>
@@ -3889,17 +4057,20 @@
       <c r="F62" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="60.6" x14ac:dyDescent="0.3">
+      <c r="G62" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="4" t="str" cm="1">
-        <f t="array" ref="C63">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E63),"-")</f>
-        <v>Station Code</v>
+      <c r="C63" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Composite Station Code</v>
       </c>
       <c r="D63" s="5" t="str" cm="1">
         <f t="array" ref="D63">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E63),"-")</f>
@@ -3912,8 +4083,11 @@
       <c r="F63" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>133</v>
       </c>
@@ -3921,12 +4095,12 @@
         <v>6</v>
       </c>
       <c r="C64" s="4" t="str" cm="1">
-        <f t="array" ref="C64">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E64),"-")</f>
-        <v>-</v>
+        <f t="array" ref="C64">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E64),G64)</f>
+        <v>Composite Latitude</v>
       </c>
       <c r="D64" s="5" t="str" cm="1">
-        <f t="array" ref="D64">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E64),"-")</f>
-        <v>-</v>
+        <f t="array" ref="D64">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E64),H64)</f>
+        <v>The latitude in decimal degrees of the sample site (should be positive).</v>
       </c>
       <c r="E64" s="2" t="e">
         <f>MATCH(A64,Data_Dictionary_FromPDF!A:A,0)</f>
@@ -3935,8 +4109,14 @@
       <c r="F64" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H64" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>134</v>
       </c>
@@ -3944,12 +4124,12 @@
         <v>6</v>
       </c>
       <c r="C65" s="4" t="str" cm="1">
-        <f t="array" ref="C65">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E65),"-")</f>
-        <v>-</v>
+        <f t="array" ref="C65">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E65),G65)</f>
+        <v>Composite Longitude</v>
       </c>
       <c r="D65" s="5" t="str" cm="1">
-        <f t="array" ref="D65">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E65),"-")</f>
-        <v>-</v>
+        <f t="array" ref="D65">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E65),H65)</f>
+        <v>The longitude in decimal degrees of the sample site (should be negative).</v>
       </c>
       <c r="E65" s="2" t="e">
         <f>MATCH(A65,Data_Dictionary_FromPDF!A:A,0)</f>
@@ -3958,17 +4138,23 @@
       <c r="F65" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="60.6" x14ac:dyDescent="0.3">
+      <c r="G65" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>135</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C66" s="4" t="str" cm="1">
-        <f t="array" ref="C66">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E66),"-")</f>
-        <v>Geometry Shape</v>
+      <c r="C66" s="4" t="str">
+        <f>G66</f>
+        <v>Composite Geometry Shape</v>
       </c>
       <c r="D66" s="5" t="str" cm="1">
         <f t="array" ref="D66">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E66),"-")</f>
@@ -3981,17 +4167,20 @@
       <c r="F66" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="G66" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="C67" s="4" t="str" cm="1">
-        <f t="array" ref="C67">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E67),"-")</f>
-        <v>Sample Date</v>
+        <v>6</v>
+      </c>
+      <c r="C67" s="4" t="str">
+        <f t="shared" ref="C67:C74" si="1">G67</f>
+        <v>Composite Sample Date</v>
       </c>
       <c r="D67" s="5" t="str" cm="1">
         <f t="array" ref="D67">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E67),"-")</f>
@@ -4005,17 +4194,20 @@
       <c r="F67" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G67" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>137</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="4" t="str" cm="1">
-        <f t="array" ref="C68">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E68),"-")</f>
-        <v>Program Name</v>
+      <c r="C68" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Composite Program Name</v>
       </c>
       <c r="D68" s="5" t="str" cm="1">
         <f t="array" ref="D68">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E68),"-")</f>
@@ -4028,17 +4220,20 @@
       <c r="F68" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="G68" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>138</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C69" s="4" t="str" cm="1">
-        <f t="array" ref="C69">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E69),"-")</f>
-        <v>Composite Type</v>
+      <c r="C69" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Composite Composite Type</v>
       </c>
       <c r="D69" s="5" t="str" cm="1">
         <f t="array" ref="D69">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E69),"-")</f>
@@ -4051,17 +4246,20 @@
       <c r="F69" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C70" s="4" t="str" cm="1">
-        <f t="array" ref="C70">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E70),"-")</f>
-        <v>Common Name</v>
+      <c r="C70" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Composite Common Name</v>
       </c>
       <c r="D70" s="5" t="str" cm="1">
         <f t="array" ref="D70">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E70),"-")</f>
@@ -4074,17 +4272,20 @@
       <c r="F70" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G70" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>140</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C71" s="4" t="str" cm="1">
-        <f t="array" ref="C71">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E71),"-")</f>
-        <v>Final Identification</v>
+      <c r="C71" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Composite Final ID</v>
       </c>
       <c r="D71" s="5" t="str" cm="1">
         <f t="array" ref="D71">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E71),"-")</f>
@@ -4097,17 +4298,20 @@
       <c r="F71" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G71" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>141</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C72" s="4" t="str" cm="1">
-        <f t="array" ref="C72">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E72),"-")</f>
-        <v>Tissue Prep</v>
+      <c r="C72" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Composite Tissue Prep</v>
       </c>
       <c r="D72" s="5" t="str" cm="1">
         <f t="array" ref="D72">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E72),"-")</f>
@@ -4120,17 +4324,20 @@
       <c r="F72" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G72" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C73" s="4" t="str" cm="1">
-        <f t="array" ref="C73">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E73),"-")</f>
-        <v>Tissue Name</v>
+      <c r="C73" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Composite Tissue Name</v>
       </c>
       <c r="D73" s="5" t="str" cm="1">
         <f t="array" ref="D73">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E73),"-")</f>
@@ -4143,17 +4350,20 @@
       <c r="F73" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="G73" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>143</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C74" s="4" t="str" cm="1">
-        <f t="array" ref="C74">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E74),"-")</f>
-        <v>Sampling Type</v>
+      <c r="C74" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Composite Sample Type Code</v>
       </c>
       <c r="D74" s="5" t="str" cm="1">
         <f t="array" ref="D74">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E74),"-")</f>
@@ -4166,8 +4376,11 @@
       <c r="F74" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G74" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>144</v>
       </c>
@@ -4189,8 +4402,9 @@
       <c r="F75" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" s="2"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>145</v>
       </c>
@@ -4212,8 +4426,9 @@
       <c r="F76" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" spans="1:8" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>47</v>
       </c>
@@ -4235,8 +4450,9 @@
       <c r="F77" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>18</v>
       </c>
@@ -4258,8 +4474,9 @@
       <c r="F78" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="1:8" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>77</v>
       </c>
@@ -4281,8 +4498,9 @@
       <c r="F79" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>146</v>
       </c>
@@ -4304,8 +4522,9 @@
       <c r="F80" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="G80" s="2"/>
+    </row>
+    <row r="81" spans="1:7" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>22</v>
       </c>
@@ -4327,8 +4546,9 @@
       <c r="F81" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>52</v>
       </c>
@@ -4350,8 +4570,9 @@
       <c r="F82" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="1:7" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>147</v>
       </c>
@@ -4374,8 +4595,9 @@
       <c r="F83" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>148</v>
       </c>
@@ -4398,8 +4620,9 @@
       <c r="F84" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="1:7" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>149</v>
       </c>
@@ -4421,8 +4644,9 @@
       <c r="F85" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>150</v>
       </c>
@@ -4444,8 +4668,9 @@
       <c r="F86" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86" s="2"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>151</v>
       </c>
@@ -4467,8 +4692,9 @@
       <c r="F87" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87" s="2"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>152</v>
       </c>
@@ -4490,8 +4716,9 @@
       <c r="F88" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>153</v>
       </c>
@@ -4513,8 +4740,9 @@
       <c r="F89" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>154</v>
       </c>
@@ -4536,8 +4764,9 @@
       <c r="F90" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G90" s="2"/>
+    </row>
+    <row r="91" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>155</v>
       </c>
@@ -4559,8 +4788,9 @@
       <c r="F91" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G91" s="2"/>
+    </row>
+    <row r="92" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>156</v>
       </c>
@@ -4582,8 +4812,9 @@
       <c r="F92" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>157</v>
       </c>
@@ -4605,8 +4836,9 @@
       <c r="F93" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G93" s="2"/>
+    </row>
+    <row r="94" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>158</v>
       </c>
@@ -4628,8 +4860,9 @@
       <c r="F94" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="G94" s="2"/>
+    </row>
+    <row r="95" spans="1:7" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>159</v>
       </c>
@@ -4651,8 +4884,9 @@
       <c r="F95" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G95" s="2"/>
+    </row>
+    <row r="96" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>160</v>
       </c>
@@ -4674,8 +4908,9 @@
       <c r="F96" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="G96" s="2"/>
+    </row>
+    <row r="97" spans="1:7" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>161</v>
       </c>
@@ -4697,8 +4932,9 @@
       <c r="F97" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97" s="2"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>162</v>
       </c>
@@ -4720,8 +4956,9 @@
       <c r="F98" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G98" s="2"/>
+    </row>
+    <row r="99" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>163</v>
       </c>
@@ -4743,8 +4980,9 @@
       <c r="F99" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99" s="2"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>164</v>
       </c>
@@ -4766,8 +5004,9 @@
       <c r="F100" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G100" s="2"/>
+    </row>
+    <row r="101" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>165</v>
       </c>
@@ -4789,8 +5028,9 @@
       <c r="F101" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>166</v>
       </c>
@@ -4812,8 +5052,9 @@
       <c r="F102" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G102" s="2"/>
+    </row>
+    <row r="103" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>167</v>
       </c>
@@ -4835,8 +5076,9 @@
       <c r="F103" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G103" s="2"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>168</v>
       </c>
@@ -4858,8 +5100,9 @@
       <c r="F104" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G104" s="2"/>
+    </row>
+    <row r="105" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>169</v>
       </c>
@@ -4881,8 +5124,9 @@
       <c r="F105" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G105" s="2"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>170</v>
       </c>
@@ -4904,8 +5148,9 @@
       <c r="F106" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G106" s="2"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>171</v>
       </c>
@@ -4927,8 +5172,9 @@
       <c r="F107" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G107" s="2"/>
+    </row>
+    <row r="108" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>172</v>
       </c>
@@ -4950,8 +5196,9 @@
       <c r="F108" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G108" s="2"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>43</v>
       </c>
@@ -4973,8 +5220,9 @@
       <c r="F109" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G109" s="2"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>173</v>
       </c>
@@ -4996,8 +5244,9 @@
       <c r="F110" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G110" s="2"/>
+    </row>
+    <row r="111" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>174</v>
       </c>
@@ -5019,8 +5268,9 @@
       <c r="F111" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G111" s="2"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>175</v>
       </c>
@@ -5042,8 +5292,9 @@
       <c r="F112" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G112" s="2"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>176</v>
       </c>
@@ -5065,8 +5316,9 @@
       <c r="F113" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G113" s="2"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>177</v>
       </c>
@@ -5088,8 +5340,9 @@
       <c r="F114" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G114" s="2"/>
+    </row>
+    <row r="115" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>79</v>
       </c>
@@ -5111,8 +5364,9 @@
       <c r="F115" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G115" s="2"/>
+    </row>
+    <row r="116" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
         <v>331</v>
       </c>
@@ -5120,12 +5374,12 @@
         <v>6</v>
       </c>
       <c r="C116" s="4" t="str" cm="1">
-        <f t="array" ref="C116">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E116),"-")</f>
-        <v>-</v>
+        <f t="array" ref="C116">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E116),G116)</f>
+        <v>Program Code</v>
       </c>
       <c r="D116" s="5" t="str" cm="1">
-        <f t="array" ref="D116">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E116),"-")</f>
-        <v>-</v>
+        <f t="array" ref="D116">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E116),H116)</f>
+        <v>Code corresponding to 'ProgramName' field. A list of possible options is available at this link: http://ceden.org/CEDEN_Checker/Checker/DisplayCEDENLookUp.php?List=ProgramLookUp</v>
       </c>
       <c r="E116" s="2" t="e">
         <f>MATCH(A116,Data_Dictionary_FromPDF!A:A,0)</f>
@@ -5134,8 +5388,14 @@
       <c r="F116" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G116" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H116" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>332</v>
       </c>
@@ -5143,12 +5403,12 @@
         <v>6</v>
       </c>
       <c r="C117" s="4" t="str" cm="1">
-        <f t="array" ref="C117">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E117),"-")</f>
-        <v>-</v>
+        <f t="array" ref="C117">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E117),G117)</f>
+        <v>Parent Project Code</v>
       </c>
       <c r="D117" s="5" t="str" cm="1">
-        <f t="array" ref="D117">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E117),"-")</f>
-        <v>-</v>
+        <f t="array" ref="D117">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E117),H117)</f>
+        <v>Code corresponding to the 'ParentProjectName' field. A list of possible options can be found at this link: http://ceden.org/CEDEN_Checker/Checker/DisplayCEDENLookUp.php?List=ParentProjectLookUp</v>
       </c>
       <c r="E117" s="2" t="e">
         <f>MATCH(A117,Data_Dictionary_FromPDF!A:A,0)</f>
@@ -5157,8 +5417,14 @@
       <c r="F117" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G117" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H117" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>333</v>
       </c>
@@ -5166,12 +5432,12 @@
         <v>6</v>
       </c>
       <c r="C118" s="4" t="str" cm="1">
-        <f t="array" ref="C118">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E118),"-")</f>
-        <v>-</v>
+        <f t="array" ref="C118">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E118),G118)</f>
+        <v>Composite Program Code</v>
       </c>
       <c r="D118" s="5" t="str" cm="1">
-        <f t="array" ref="D118">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E118),"-")</f>
-        <v>-</v>
+        <f t="array" ref="D118">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E118),H118)</f>
+        <v>Code corresponding to 'CompositeProgramName' field. A list of possible options is available at this link: http://ceden.org/CEDEN_Checker/Checker/DisplayCEDENLookUp.php?List=ProgramLookUp</v>
       </c>
       <c r="E118" s="2" t="e">
         <f>MATCH(A118,Data_Dictionary_FromPDF!A:A,0)</f>
@@ -5180,8 +5446,14 @@
       <c r="F118" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G118" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H118" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>334</v>
       </c>
@@ -5189,12 +5461,12 @@
         <v>6</v>
       </c>
       <c r="C119" s="4" t="str" cm="1">
-        <f t="array" ref="C119">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E119),"-")</f>
-        <v>-</v>
+        <f t="array" ref="C119">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E119),G119)</f>
+        <v>Composite Parent Project Code</v>
       </c>
       <c r="D119" s="5" t="str" cm="1">
-        <f t="array" ref="D119">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E119),"-")</f>
-        <v>-</v>
+        <f t="array" ref="D119">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E119),H119)</f>
+        <v>Code corresponding to 'CompositeParentProjectName' field. A list of possible options is available at this link: http://ceden.org/CEDEN_Checker/Checker/DisplayCEDENLookUp.php?List=ParentProjectLookUp</v>
       </c>
       <c r="E119" s="2" t="e">
         <f>MATCH(A119,Data_Dictionary_FromPDF!A:A,0)</f>
@@ -5203,8 +5475,14 @@
       <c r="F119" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G119" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H119" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>335</v>
       </c>
@@ -5212,12 +5490,12 @@
         <v>6</v>
       </c>
       <c r="C120" s="4" t="str" cm="1">
-        <f t="array" ref="C120">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E120),"-")</f>
-        <v>-</v>
+        <f t="array" ref="C120">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E120),G120)</f>
+        <v>Analyte Code</v>
       </c>
       <c r="D120" s="5" t="str" cm="1">
-        <f t="array" ref="D120">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E120),"-")</f>
-        <v>-</v>
+        <f t="array" ref="D120">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E120),H120)</f>
+        <v>Code corresponding to the 'Analyte' field. A list of possible options is available at this link: http://ceden.org/CEDEN_Checker/Checker/DisplayCEDENLookUp.php?List=AnalyteLookUp</v>
       </c>
       <c r="E120" s="2" t="e">
         <f>MATCH(A120,Data_Dictionary_FromPDF!A:A,0)</f>
@@ -5226,8 +5504,14 @@
       <c r="F120" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G120" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H120" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
         <v>336</v>
       </c>
@@ -5235,12 +5519,12 @@
         <v>6</v>
       </c>
       <c r="C121" s="4" t="str" cm="1">
-        <f t="array" ref="C121">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E121),"-")</f>
-        <v>-</v>
+        <f t="array" ref="C121">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E121),G121)</f>
+        <v>Fraction Name</v>
       </c>
       <c r="D121" s="5" t="str" cm="1">
-        <f t="array" ref="D121">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E121),"-")</f>
-        <v>-</v>
+        <f t="array" ref="D121">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E121),H121)</f>
+        <v>Specific descriptor of the Analyte. For example, metals are often expressed as total or dissolved and therefore this description should be used within the fraction field. A list of possible options can be found at this link: https://ceden.org/CEDEN_Checker/Checker/DisplayCEDENLookUp.php?List=FractionLookUp</v>
       </c>
       <c r="E121" s="2" t="e">
         <f>MATCH(A121,Data_Dictionary_FromPDF!A:A,0)</f>
@@ -5249,11 +5533,14 @@
       <c r="F121" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G121" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="G121" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H121" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>337</v>
       </c>
@@ -5261,12 +5548,12 @@
         <v>6</v>
       </c>
       <c r="C122" s="4" t="str" cm="1">
-        <f t="array" ref="C122">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E122),"-")</f>
-        <v>-</v>
+        <f t="array" ref="C122">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E122),G122)</f>
+        <v>Fraction Code</v>
       </c>
       <c r="D122" s="5" t="str" cm="1">
-        <f t="array" ref="D122">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E122),"-")</f>
-        <v>-</v>
+        <f t="array" ref="D122">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E122),H122)</f>
+        <v>Code corresponding to the 'FractionName' field. A list of possible options can be found at this link: https://ceden.org/CEDEN_Checker/Checker/DisplayCEDENLookUp.php?List=FractionLookUp</v>
       </c>
       <c r="E122" s="2" t="e">
         <f>MATCH(A122,Data_Dictionary_FromPDF!A:A,0)</f>
@@ -5275,8 +5562,14 @@
       <c r="F122" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" ht="156.6" x14ac:dyDescent="0.3">
+      <c r="G122" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="H122" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="156.6" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>82</v>
       </c>
@@ -5306,8 +5599,9 @@
       <c r="F123" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" ht="72.599999999999994" x14ac:dyDescent="0.3">
+      <c r="G123" s="2"/>
+    </row>
+    <row r="124" spans="1:8" ht="72.599999999999994" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>84</v>
       </c>
@@ -5331,8 +5625,9 @@
       <c r="F124" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="G124" s="2"/>
+    </row>
+    <row r="125" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>86</v>
       </c>
@@ -5354,14 +5649,16 @@
       <c r="F125" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G125" s="2"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="5"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F125" xr:uid="{3405FC6E-A9F1-4DF5-92D4-B571F51B889D}"/>
